--- a/BishoujoAcademy/Resource/excle/dialogue.xlsx
+++ b/BishoujoAcademy/Resource/excle/dialogue.xlsx
@@ -14,53 +14,193 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>sound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://Resource/res/role/xx_001.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://Resource/res/role/xx_002.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://Resource/res/changjing/login_1.png</t>
+  </si>
+  <si>
+    <t>文本100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本103</t>
+  </si>
+  <si>
+    <t>文本104</t>
+  </si>
+  <si>
+    <t>文本105</t>
+  </si>
+  <si>
+    <t>文本107</t>
+  </si>
+  <si>
+    <t>文本108</t>
+  </si>
+  <si>
+    <t>文本109</t>
+  </si>
+  <si>
+    <t>文本110结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本101选项1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本102选项2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本106结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://Resource/sound/bgm/BGM1.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://Resource/sound/bgm/BGM2.mp3</t>
+  </si>
+  <si>
+    <t>res://Resource/sound/voice/xx_dialogue_001.mp3</t>
+  </si>
+  <si>
+    <t>res://Resource/sound/effect/click_001.mp3</t>
+  </si>
+  <si>
+    <t>res://Resource/sound/effect/click_002.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>int[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下语句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色模型路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景模型路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对话文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音效路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语音路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bgm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>nextID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>modle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bgm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sound</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>drop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女主</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我</t>
+    <t>女主2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女主1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://Resource/sound/voice/xx_dialogue_002.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101;102</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -104,9 +244,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -411,71 +552,356 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="9" style="2" customWidth="1"/>
+    <col min="4" max="4" width="33.75" style="2" customWidth="1"/>
+    <col min="5" max="5" width="37.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="2" customWidth="1"/>
+    <col min="7" max="7" width="33.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="41.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="44.625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9" style="2"/>
+    <col min="11" max="11" width="12.25" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="K2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>99</v>
+      </c>
+      <c r="B4" s="1">
+        <v>100</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>100</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>101</v>
+      </c>
+      <c r="B6" s="2">
+        <v>103</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>102</v>
+      </c>
+      <c r="B7" s="2">
+        <v>107</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>103</v>
+      </c>
+      <c r="B8" s="2">
+        <v>104</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="F8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="I8" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>104</v>
+      </c>
+      <c r="B9" s="2">
+        <v>105</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>100</v>
-      </c>
-      <c r="B2" s="1">
-        <v>101102</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="I9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>105</v>
+      </c>
+      <c r="B10" s="2">
+        <v>106</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>102</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="H10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>106</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>107</v>
+      </c>
+      <c r="B12" s="2">
+        <v>108</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4">
-        <v>103</v>
+      <c r="G12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>108</v>
+      </c>
+      <c r="B13" s="2">
+        <v>109</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>109</v>
+      </c>
+      <c r="B14" s="2">
+        <v>110</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>110</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/BishoujoAcademy/Resource/excle/dialogue.xlsx
+++ b/BishoujoAcademy/Resource/excle/dialogue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,28 +43,6 @@
     <t>res://Resource/res/changjing/login_1.png</t>
   </si>
   <si>
-    <t>文本100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文本103</t>
-  </si>
-  <si>
-    <t>文本104</t>
-  </si>
-  <si>
-    <t>文本105</t>
-  </si>
-  <si>
-    <t>文本107</t>
-  </si>
-  <si>
-    <t>文本108</t>
-  </si>
-  <si>
-    <t>文本109</t>
-  </si>
-  <si>
     <t>文本110结束</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -201,6 +179,54 @@
   </si>
   <si>
     <t>101;102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本99（测试用废话一大堆，测试用废话一大堆，测试用废话一大堆，测试用废话一大堆，测试用废话一大堆）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本100（测试用废话一大堆，测试用废话一大堆，测试用废话一大堆）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本103（测试用废话一大堆，测试用废话一大堆，测试用废话一大堆，测试用废话一大堆，测试用废话一大堆）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本104（测试用废话一大堆，测试用废话一大堆）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本105（测试用废话一大堆，测试用废话一大堆，测试用废话一大堆）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本107（测试用废话一大堆，测试用废话一大堆）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本108（测试用废话一大堆，测试用废话一大堆，测试用废话一大堆，测试用废话一大堆）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本109（测试用废话一大堆，测试用废话一大堆，测试用废话一大堆，测试用废话一大堆，测试用废话一大堆）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>screenEffects</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屏幕效果（1.震动，2黑屏）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物切换（1.淡入淡出）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roleEffects</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -552,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -564,122 +590,142 @@
     <col min="2" max="2" width="9" style="2"/>
     <col min="3" max="3" width="9" style="2" customWidth="1"/>
     <col min="4" max="4" width="33.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="37.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="15.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="34.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="51.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="33.375" style="2" customWidth="1"/>
     <col min="8" max="8" width="41.375" style="2" customWidth="1"/>
     <col min="9" max="9" width="44.625" style="2" customWidth="1"/>
     <col min="10" max="10" width="9" style="2"/>
-    <col min="11" max="11" width="12.25" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="2"/>
+    <col min="11" max="11" width="23.25" style="2" customWidth="1"/>
+    <col min="12" max="12" width="30.5" style="2" customWidth="1"/>
+    <col min="13" max="13" width="12.25" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>99</v>
       </c>
@@ -687,7 +733,7 @@
         <v>100</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>4</v>
@@ -696,42 +742,39 @@
         <v>6</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>100</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>101</v>
       </c>
@@ -739,10 +782,10 @@
         <v>103</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>102</v>
       </c>
@@ -750,10 +793,10 @@
         <v>107</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>103</v>
       </c>
@@ -761,19 +804,25 @@
         <v>104</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>104</v>
       </c>
@@ -781,19 +830,19 @@
         <v>105</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>105</v>
       </c>
@@ -801,33 +850,33 @@
         <v>106</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>106</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="J11" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>107</v>
       </c>
@@ -835,22 +884,31 @@
         <v>108</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E12" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F12" s="2" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+      <c r="K12" s="2">
+        <v>2</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>108</v>
       </c>
@@ -858,19 +916,19 @@
         <v>109</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>109</v>
       </c>
@@ -878,27 +936,27 @@
         <v>110</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>110</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="J15" s="2">
         <v>1</v>

--- a/BishoujoAcademy/Resource/excle/dialogue.xlsx
+++ b/BishoujoAcademy/Resource/excle/dialogue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -227,6 +227,10 @@
   </si>
   <si>
     <t>roleEffects</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://Resource/res/changjing/login_2.png</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -581,7 +585,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -590,7 +594,7 @@
     <col min="2" max="2" width="9" style="2"/>
     <col min="3" max="3" width="9" style="2" customWidth="1"/>
     <col min="4" max="4" width="33.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="34.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="41.25" style="2" customWidth="1"/>
     <col min="6" max="6" width="51.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="33.375" style="2" customWidth="1"/>
     <col min="8" max="8" width="41.375" style="2" customWidth="1"/>
@@ -890,7 +894,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>48</v>

--- a/BishoujoAcademy/Resource/excle/dialogue.xlsx
+++ b/BishoujoAcademy/Resource/excle/dialogue.xlsx
@@ -584,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -788,6 +788,9 @@
       <c r="F6" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="K6" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
@@ -818,9 +821,6 @@
       </c>
       <c r="I8" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="K8" s="2">
-        <v>1</v>
       </c>
       <c r="L8" s="2">
         <v>1</v>

--- a/BishoujoAcademy/Resource/excle/dialogue.xlsx
+++ b/BishoujoAcademy/Resource/excle/dialogue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,18 +43,6 @@
     <t>res://Resource/res/changjing/login_1.png</t>
   </si>
   <si>
-    <t>文本110结束</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文本101选项1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文本102选项2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>文本106结束</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -63,15 +51,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>res://Resource/sound/bgm/BGM2.mp3</t>
-  </si>
-  <si>
     <t>res://Resource/sound/voice/xx_dialogue_001.mp3</t>
   </si>
   <si>
-    <t>res://Resource/sound/effect/click_001.mp3</t>
-  </si>
-  <si>
     <t>res://Resource/sound/effect/click_002.mp3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -178,14 +160,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>101;102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文本99（测试用废话一大堆，测试用废话一大堆，测试用废话一大堆，测试用废话一大堆，测试用废话一大堆）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>文本100（测试用废话一大堆，测试用废话一大堆，测试用废话一大堆）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -202,10 +176,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>文本107（测试用废话一大堆，测试用废话一大堆）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>文本108（测试用废话一大堆，测试用废话一大堆，测试用废话一大堆，测试用废话一大堆）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -214,14 +184,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>screenEffects</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>屏幕效果（1.震动，2黑屏）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>人物切换（1.淡入淡出）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -231,6 +193,62 @@
   </si>
   <si>
     <t>res://Resource/res/changjing/login_2.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102;107</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本101（测试用废话一大堆，测试用废话一大堆）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本102（选项1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本110（测试用废话一大堆，测试用废话一大堆，测试用废话一大堆，测试用废话一大堆，测试用废话一大堆）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本111结束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://Resource/sound/bgm/BGM1.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://Resource/sound/voice/xx_dialogue_002.mp3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本107（选项2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女主2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maskChange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑屏切换屏幕(颜色1黑，2白，时间)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2;3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>震动屏幕(幅度，时间)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -582,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -594,150 +612,153 @@
     <col min="2" max="2" width="9" style="2"/>
     <col min="3" max="3" width="9" style="2" customWidth="1"/>
     <col min="4" max="4" width="33.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="41.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="51.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="33.375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="41.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="54.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.25" style="2" customWidth="1"/>
+    <col min="8" max="8" width="26" style="2" customWidth="1"/>
     <col min="9" max="9" width="44.625" style="2" customWidth="1"/>
     <col min="10" max="10" width="9" style="2"/>
-    <col min="11" max="11" width="23.25" style="2" customWidth="1"/>
-    <col min="12" max="12" width="30.5" style="2" customWidth="1"/>
-    <col min="13" max="13" width="12.25" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="2"/>
+    <col min="11" max="12" width="23.25" style="2" customWidth="1"/>
+    <col min="13" max="13" width="30.5" style="2" customWidth="1"/>
+    <col min="14" max="14" width="12.25" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B4" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>4</v>
@@ -746,221 +767,230 @@
         <v>6</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B6" s="2">
         <v>103</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K6" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B7" s="2">
+        <v>104</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>104</v>
+      </c>
+      <c r="B8" s="2">
+        <v>105</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>105</v>
+      </c>
+      <c r="B9" s="2">
+        <v>106</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>106</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
         <v>107</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A8" s="2">
-        <v>103</v>
-      </c>
-      <c r="B8" s="2">
-        <v>104</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A9" s="2">
-        <v>104</v>
-      </c>
-      <c r="B9" s="2">
-        <v>105</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A10" s="2">
-        <v>105</v>
-      </c>
-      <c r="B10" s="2">
-        <v>106</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A11" s="2">
-        <v>106</v>
+      <c r="B11" s="2">
+        <v>108</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B12" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>12</v>
+        <v>51</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K12" s="2">
-        <v>2</v>
-      </c>
-      <c r="L12" s="2">
+        <v>9</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M12" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B13" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>110</v>
+      </c>
+      <c r="B14" s="2">
+        <v>111</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I13" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A14" s="2">
-        <v>109</v>
-      </c>
-      <c r="B14" s="2">
-        <v>110</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="I14" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>111</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A15" s="2">
-        <v>110</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>7</v>
+      <c r="I15" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="J15" s="2">
         <v>1</v>

--- a/BishoujoAcademy/Resource/excle/dialogue.xlsx
+++ b/BishoujoAcademy/Resource/excle/dialogue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -248,7 +248,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>震动屏幕(幅度，时间)</t>
+    <t>震动屏幕(幅度1,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shake</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -603,7 +607,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -618,7 +622,8 @@
     <col min="8" max="8" width="26" style="2" customWidth="1"/>
     <col min="9" max="9" width="44.625" style="2" customWidth="1"/>
     <col min="10" max="10" width="9" style="2"/>
-    <col min="11" max="12" width="23.25" style="2" customWidth="1"/>
+    <col min="11" max="11" width="23.25" style="2" customWidth="1"/>
+    <col min="12" max="12" width="16.625" style="2" customWidth="1"/>
     <col min="13" max="13" width="30.5" style="2" customWidth="1"/>
     <col min="14" max="14" width="12.25" style="2" customWidth="1"/>
     <col min="15" max="16384" width="9" style="2"/>
@@ -702,6 +707,9 @@
       <c r="K2" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="L2" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="M2" s="2" t="s">
         <v>44</v>
       </c>
@@ -743,6 +751,9 @@
       <c r="K3" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="L3" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="M3" s="2" t="s">
         <v>11</v>
       </c>
@@ -817,6 +828,9 @@
       <c r="C7" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="D7" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="E7" s="2" t="s">
         <v>45</v>
       </c>
@@ -840,11 +854,17 @@
       <c r="C8" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="D8" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="F8" s="2" t="s">
         <v>39</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1</v>
       </c>
       <c r="M8" s="2">
         <v>1</v>
@@ -868,6 +888,9 @@
       </c>
       <c r="I9" s="2" t="s">
         <v>52</v>
+      </c>
+      <c r="L9" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">

--- a/BishoujoAcademy/Resource/excle/dialogue.xlsx
+++ b/BishoujoAcademy/Resource/excle/dialogue.xlsx
@@ -216,10 +216,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>res://Resource/sound/bgm/BGM1.mp3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>res://Resource/sound/voice/xx_dialogue_002.mp3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -253,6 +249,10 @@
   </si>
   <si>
     <t>Shake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res://Resource/sound/bgm/BGM2.mp3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -607,7 +607,7 @@
   <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -616,7 +616,7 @@
     <col min="2" max="2" width="9" style="2"/>
     <col min="3" max="3" width="9" style="2" customWidth="1"/>
     <col min="4" max="4" width="33.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="26.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="35.25" style="2" customWidth="1"/>
     <col min="6" max="6" width="54.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="19.25" style="2" customWidth="1"/>
     <col min="8" max="8" width="26" style="2" customWidth="1"/>
@@ -661,10 +661,10 @@
         <v>24</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>43</v>
@@ -705,10 +705,10 @@
         <v>2</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>44</v>
@@ -795,7 +795,7 @@
         <v>46</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>4</v>
@@ -804,7 +804,7 @@
         <v>47</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
@@ -838,10 +838,10 @@
         <v>38</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
@@ -887,7 +887,7 @@
         <v>40</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L9" s="2">
         <v>2</v>
@@ -921,7 +921,7 @@
         <v>108</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
@@ -944,7 +944,7 @@
         <v>41</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>10</v>
@@ -953,7 +953,7 @@
         <v>9</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M12" s="2">
         <v>1</v>
@@ -976,7 +976,7 @@
         <v>42</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
